--- a/imageCreationExcel/back/0901-1/0901-1_18.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_18.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,15 +495,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5401083485807361</v>
+        <v>0.9498404019051017</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31.83442456803201</v>
+        <v>0.9287119623641573</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -516,11 +516,11 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_C_gamma0.54_equalization32.0.jpg</t>
+          <t>1_B_gamma0.95_contrast0.93.jpg</t>
         </is>
       </c>
     </row>
@@ -530,24 +530,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.013787900363889</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0.7928633162745782</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F3" t="n">
-        <v>0.8096263786642721</v>
+        <v>0.273484217185757</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_Q_sharpness0.79_gamma0.81.jpg</t>
+          <t>2_B_contrast1.0_sharpness0.27.jpg</t>
         </is>
       </c>
     </row>
@@ -574,41 +574,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8148171798754755</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0.8146118716159978</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F4" t="n">
-        <v>23.24127984214642</v>
+        <v>0.8599632710812261</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7.194579288273856</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_P_sharpness0.81_brightness23.0.jpg</t>
+          <t>3_T_contrast0.81_sharpness0.86_equalization7.2.jpg</t>
         </is>
       </c>
     </row>
@@ -618,41 +616,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6285333423881579</v>
+        <v>0.8539548307504263</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25.35236864148355</v>
+        <v>0.6509646942926202</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>31.90575098672181</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_S_sharpness0.63_brightness25.0.jpg</t>
+          <t>4_2_contrast0.85_gamma0.65_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -662,41 +658,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6716924807028005</v>
+        <v>1.046404892705723</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9491645689268605</v>
+        <v>0.4074965866349174</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1.050593493596427</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_3_gamma0.67_contrast0.95.jpg</t>
+          <t>5_I_contrast1.0_sharpness0.41_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -706,16 +700,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6852449811367232</v>
+        <v>1.119940753231604</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -723,7 +717,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.770096900805985</v>
+        <v>29.68431231521469</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -731,14 +725,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.1829468712801403</v>
+        <v>0.4965165532418562</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_S_gamma0.69_brightness8.8_sharpness0.18.jpg</t>
+          <t>6_1_contrast1.1_brightness30.0_sharpness0.5.jpg</t>
         </is>
       </c>
     </row>
@@ -748,24 +742,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4391915012397913</v>
+        <v>27.12431829456549</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.170475289712416</v>
+        <v>0.7801245683607256</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -782,7 +776,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_T_sharpness0.44_contrast1.2.jpg</t>
+          <t>7_P_brightness27.0_gamma0.78.jpg</t>
         </is>
       </c>
     </row>
@@ -792,41 +786,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7587949063455715</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0.8000139220489808</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>0.7131222616329819</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>23.26137420868492</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H9" t="n">
+        <v>21.62910213105855</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_7_sharpness0.8_equalization23.0.jpg</t>
+          <t>8_P_gamma0.76_sharpness0.71_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -836,7 +828,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -845,7 +837,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7.867887827183101</v>
+        <v>19.38168920741762</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -853,24 +845,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.6688587347531362</v>
+        <v>0.6008956926694341</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8173019001425502</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_2_brightness7.9_gamma0.67.jpg</t>
+          <t>9_I_brightness19.0_gamma0.6_sharpness0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -880,39 +870,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.4103933919650332</v>
+        <v>3.215654711177205</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5251758144959409</v>
+        <v>0.913917591333354</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7.103136690258989</v>
+        <v>0.750690363576977</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_S_sharpness0.41_gamma0.53_equalization7.1.jpg</t>
+          <t>10_3_brightness3.2_contrast0.91_gamma0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -922,41 +912,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7582362314611123</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9013872259215535</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>18.66669885768713</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.980859066519753</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H12" t="n">
+        <v>15.28955878504004</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_B_brightness19.0_gamma0.98.jpg</t>
+          <t>11_7_sharpness0.76_contrast0.9_brightness15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -975,30 +963,32 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.979321261296611</v>
+        <v>0.6497609595566242</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9964932178368859</v>
+        <v>3.585361252221598</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>15.02141201145785</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_E_sharpness0.98_contrast1.0_equalization15.0.jpg</t>
+          <t>12_E_sharpness0.65_brightness3.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1008,39 +998,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2016164755569007</v>
+        <v>0.85919245092561</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.037147923185247</v>
+        <v>27.0953918709287</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>0.8226544744194979</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_C_sharpness0.2_contrast1.0_gamma0.82.jpg</t>
+          <t>13_9_contrast0.86_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1059,30 +1051,32 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.7579833855248046</v>
+        <v>0.6440151341626429</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8317804242939508</v>
+        <v>0.8310748521646476</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>0.279939726074083</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_S_gamma0.76_brightness0.83_sharpness0.28.jpg</t>
+          <t>14_S_gamma0.64_contrast0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -1092,24 +1086,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.08401893791427</v>
+        <v>16.79505992430346</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9358998798471677</v>
+        <v>0.8718871994192763</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1126,7 +1120,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_S_gamma1.1_sharpness0.94.jpg</t>
+          <t>15_Q_brightness17.0_gamma0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1130,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1145,7 +1139,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9040952589722964</v>
+        <v>0.5706472158433709</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1153,22 +1147,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.995785446700488</v>
+        <v>1.135441851286657</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2.482853285560785</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_B_gamma0.9_contrast1.0_brightness2.5.jpg</t>
+          <t>16_3_gamma0.57_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1178,39 +1174,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2062413503131801</v>
+        <v>1.104297174134576</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.177474307637142</v>
+        <v>0.696899592128513</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>0.7576835888505837</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_2_sharpness0.21_contrast1.2_gamma0.76.jpg</t>
+          <t>17_C_contrast1.1_gamma0.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1220,39 +1218,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6820612820615745</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.965048627957707</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>11.81216334868948</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.5674030439889555</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="H19" t="n">
-        <v>0.4885575492925048</v>
+        <v>14.32342678542428</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_7_brightness12.0_gamma0.57_sharpness0.49.jpg</t>
+          <t>18_B_gamma0.68_contrast0.97_brightness14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1262,41 +1260,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9729257651282974</v>
+        <v>0.9961472485060902</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.7209893192405573</v>
+        <v>0.5190917423851389</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>28.68168485320148</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_S_gamma0.97_sharpness0.72.jpg</t>
+          <t>19_0_contrast1.0_gamma0.52_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1306,39 +1302,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17.31098745974499</v>
+        <v>0.7368235483808038</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5628149091080368</v>
+        <v>19.97744994968819</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1.017544077424365</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_J_brightness17.0_gamma0.56_contrast1.0.jpg</t>
+          <t>20_T_sharpness0.74_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1348,39 +1346,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8499067638558161</v>
+        <v>0.916670509851149</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.58596556652434</v>
+        <v>29.93745567192054</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>28.21895868195814</v>
+        <v>0.03764248231468448</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_P_contrast0.85_gamma0.59_equalization28.0.jpg</t>
+          <t>21_J_gamma0.92_brightness30.0_sharpness0.038.jpg</t>
         </is>
       </c>
     </row>
@@ -1390,24 +1388,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.129583199680364</v>
+        <v>4.513098457272328</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>26.17483118178184</v>
+        <v>1.07524730030865</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1424,7 +1422,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_B_contrast1.1_brightness26.0.jpg</t>
+          <t>22_I_brightness4.5_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1432,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1443,7 +1441,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.035395566238793</v>
+        <v>0.9414306048864348</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1451,24 +1449,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.3870333078777382</v>
+        <v>0.6740956309222417</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9680865604528558</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_T_gamma1.0_sharpness0.39.jpg</t>
+          <t>23_I_gamma0.94_sharpness0.67_contrast0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -1478,24 +1474,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8146626346425315</v>
+        <v>1.024892679730535</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>18.78967999837455</v>
+        <v>0.2862585769520952</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1512,7 +1508,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_1_contrast0.81_equalization19.0.jpg</t>
+          <t>24_E_gamma1.0_sharpness0.29.jpg</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1518,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1531,30 +1527,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>22.2620712467718</v>
+        <v>27.20470333153024</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9078613916413573</v>
+        <v>0.4471771951151182</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.459282697090424</v>
+        <v>0.7997729454224984</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_B_brightness22.0_gamma0.91_sharpness0.46.jpg</t>
+          <t>25_8_brightness27.0_sharpness0.45_gamma0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1560,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1573,30 +1569,32 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.830982889496144</v>
+        <v>0.8842617059996719</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9759286241680549</v>
+        <v>19.05827844176049</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>16.1255083387661</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_9_contrast0.83_gamma0.98_equalization16.0.jpg</t>
+          <t>26_J_contrast0.88_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1604,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1615,30 +1613,32 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0002538100546635169</v>
+        <v>0.6187375481155923</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9261311358272536</v>
+        <v>14.29079031268786</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>22.13090541753204</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_1_sharpness0.00025_gamma0.93_equalization22.0.jpg</t>
+          <t>27_8_sharpness0.62_brightness14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1648,39 +1648,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.3436100354061684</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.058613223339745</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>3.757304575032441</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.8416073074551694</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="H29" t="n">
-        <v>0.241851012603077</v>
+        <v>6.431537527605874</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_2_brightness3.8_gamma0.84_sharpness0.24.jpg</t>
+          <t>28_I_sharpness0.34_contrast1.1_brightness6.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1690,24 +1690,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8458089073345534</v>
+        <v>0.8759233422846584</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8105326517543254</v>
+        <v>0.6186893377566003</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1720,11 +1720,11 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_9_gamma0.85_contrast0.81.jpg</t>
+          <t>29_8_sharpness0.88_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -1734,41 +1734,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.819375348976609</v>
+        <v>0.9681730539953508</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.750029890508531</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>7.724496688342969</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H31" t="n">
+        <v>26.18110668072989</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_C_gamma0.82_equalization7.7.jpg</t>
+          <t>30_T_contrast0.97_gamma0.75_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1778,41 +1776,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5697863437835149</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>0.5509384626776164</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F32" t="n">
-        <v>1.083659495107456</v>
+        <v>0.8444925640080412</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>15.9381504423561</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_3_sharpness0.55_gamma1.1.jpg</t>
+          <t>31_2_gamma0.57_sharpness0.84_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1822,24 +1818,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6.376331179641884</v>
+        <v>1.051398648761019</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8251592661236576</v>
+        <v>0.9928435693733347</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1852,11 +1848,11 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_B_brightness6.4_sharpness0.83.jpg</t>
+          <t>32_0_contrast1.1_gamma0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -1866,16 +1862,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.120322546791849</v>
+        <v>0.5372229627420178</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1883,7 +1879,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>30.61634274101521</v>
+        <v>16.67231265835067</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1900,7 +1896,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_0_contrast1.1_equalization31.0.jpg</t>
+          <t>33_2_gamma0.54_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1906,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1919,7 +1915,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9198147437228138</v>
+        <v>0.7127651894199234</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1927,22 +1923,24 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8207160143258754</v>
+        <v>0.4127014212518461</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5.780614823135084</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_E_gamma0.92_sharpness0.82_equalization5.8.jpg</t>
+          <t>34_9_gamma0.71_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1952,24 +1950,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>24.69242479242278</v>
+        <v>1.073049471621137</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.6508915486750634</v>
+        <v>28.49410795145008</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1986,7 +1984,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_P_brightness25.0_gamma0.65.jpg</t>
+          <t>35_S_contrast1.1_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1996,16 +1994,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9373622105180863</v>
+        <v>8.621610734035677</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2013,22 +2011,24 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.037123668488316</v>
+        <v>0.562083826712046</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>0.5874559568827983</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_B_contrast0.94_gamma1.0_sharpness0.59.jpg</t>
+          <t>36_T_brightness8.6_gamma0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -2038,39 +2038,41 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.6222636453931021</v>
+        <v>0.03923276307485546</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.0975025175391091</v>
+        <v>0.7091113280108903</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>12.96736048823597</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_B_gamma0.62_sharpness0.098_equalization13.0.jpg</t>
+          <t>37_I_sharpness0.039_gamma0.71.jpg</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2082,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2089,30 +2091,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7.674523493539218</v>
+        <v>1.019234567247094</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.3538696436193611</v>
+        <v>0.8290733896854188</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.004539960852686</v>
+        <v>1.07217369492631</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_9_brightness7.7_sharpness0.35_contrast1.0.jpg</t>
+          <t>38_Q_brightness1.0_contrast0.83_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2122,39 +2124,41 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6.323719805902639</v>
+        <v>0.1435747952030196</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9189397300347883</v>
+        <v>0.8531268532446787</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>0.5999708161413727</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_3_brightness6.3_sharpness0.92_gamma0.6.jpg</t>
+          <t>39_P_sharpness0.14_contrast0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -2164,41 +2168,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.070358998774234</v>
+        <v>0.9273355206396732</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.037513473951016</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>25.64870548451687</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H41" t="n">
+        <v>19.7309314801884</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_3_contrast1.1_equalization26.0.jpg</t>
+          <t>40_9_gamma0.93_contrast1.0_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2213,36 +2215,34 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.813854179014617</v>
+        <v>0.5154868174325951</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>16.05242717403596</v>
+        <v>0.859790083102737</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.3764327129370632</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_T_contrast0.81_equalization16.0.jpg</t>
+          <t>41_T_gamma0.52_contrast0.86_sharpness0.38.jpg</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2261,32 +2261,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.7036698521162934</v>
+        <v>0.03666763660121419</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10.68855015285806</v>
+        <v>0.9252112730672186</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1.174052514707253</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_0_sharpness0.7_equalization11.0.jpg</t>
+          <t>42_E_sharpness0.037_gamma0.93_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -2296,39 +2294,41 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.7474872264162684</v>
+        <v>17.25657336376701</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.467109553762838</v>
+        <v>0.7241773299517713</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>14.85713104511862</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_2_gamma0.75_sharpness0.47_equalization15.0.jpg</t>
+          <t>43_9_brightness17.0_gamma0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -2338,39 +2338,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9141427085952032</v>
+        <v>1.148713652278683</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.5477485989960018</v>
+        <v>17.12650777937309</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>0.9461143755905896</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_S_gamma0.91_brightness0.55_contrast0.95.jpg</t>
+          <t>44_8_contrast1.1_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2380,39 +2382,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9842468127648878</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>0.3619072189326694</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F46" t="n">
-        <v>1.030245321958168</v>
+        <v>0.4955070125099631</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>7.788813247459206</v>
+        <v>0.7064884973465475</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_7_sharpness0.36_contrast1.0_brightness7.8.jpg</t>
+          <t>45_9_contrast0.98_sharpness0.5_gamma0.71.jpg</t>
         </is>
       </c>
     </row>
@@ -2422,24 +2424,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.6203165296138835</v>
+        <v>0.9056885862228158</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10.63753097349345</v>
+        <v>0.7932428620060401</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2456,7 +2458,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_I_gamma0.62_brightness11.0.jpg</t>
+          <t>46_7_contrast0.91_gamma0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -2466,24 +2468,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1.043330108215706</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>0.6916003876934419</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F48" t="n">
-        <v>0.9083347892441125</v>
+        <v>0.9897501374517184</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2500,7 +2502,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_B_sharpness0.69_contrast0.91.jpg</t>
+          <t>47_T_contrast1.0_sharpness0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -2510,24 +2512,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.6295082715405422</v>
+        <v>0.2992967092756242</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>17.27249453425595</v>
+        <v>0.9784748007405273</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2540,11 +2542,11 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_1_gamma0.63_equalization17.0.jpg</t>
+          <t>48_3_sharpness0.3_contrast0.98.jpg</t>
         </is>
       </c>
     </row>
